--- a/MPC.xlsx
+++ b/MPC.xlsx
@@ -1028,7 +1028,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$W$32:$W$45</c:f>
+              <c:f>Sheet2!$W$33:$W$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1164,7 +1164,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$X$32:$X$45</c:f>
+              <c:f>Sheet2!$X$33:$X$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1518,7 +1518,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>ref_cte</c:v>
+            <c:v>right curve</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1546,10 +1546,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$W$4:$W$18</c:f>
+              <c:f>Sheet2!$W$4:$W$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -1587,12 +1587,15 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
@@ -1600,10 +1603,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$X$4:$X$18</c:f>
+              <c:f>Sheet2!$X$4:$X$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0.6</c:v>
                 </c:pt>
@@ -1641,13 +1644,16 @@
                   <c:v>12.4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.399999999999999</c:v>
+                  <c:v>15.595000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19.899999999999999</c:v>
+                  <c:v>18.79</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22.4</c:v>
+                  <c:v>21.984999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25.18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1656,6 +1662,91 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8AF0-4E6C-B3B0-B71213E10738}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>left curve</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$W$15:$W$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$Y$15:$Y$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.205</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.815000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-16AE-42B0-BBF7-CAB43A20E85F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1736,6 +1827,7 @@
         <c:axId val="206980856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="27.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1793,6 +1885,7 @@
         <c:crossAx val="206979544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2.5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1954,10 +2047,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$W$4:$W$18</c:f>
+              <c:f>Sheet2!$W$4:$W$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -1995,12 +2088,15 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
@@ -2008,10 +2104,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$Y$4:$Y$18</c:f>
+              <c:f>Sheet2!$Z$4:$Z$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -2048,13 +2144,13 @@
                 <c:pt idx="11">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
                 <c:pt idx="13">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
@@ -2362,10 +2458,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$W$4:$W$18</c:f>
+              <c:f>Sheet2!$W$4:$W$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -2403,12 +2499,15 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
@@ -2416,10 +2515,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$AB$4:$AB$18</c:f>
+              <c:f>Sheet2!$AC$4:$AC$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0.89388888888888884</c:v>
                 </c:pt>
@@ -2457,12 +2556,15 @@
                   <c:v>23.464583333333334</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>23.464583333333337</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>23.24111111111111</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>24.693680555555556</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>28.157499999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -5593,15 +5695,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6067,10 +6169,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80AB1C30-B753-4100-936A-6A7FE482D564}">
-  <dimension ref="A1:AB71"/>
+  <dimension ref="A1:AC71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6078,7 +6180,7 @@
     <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
@@ -6089,7 +6191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-32.161729999999999</v>
       </c>
@@ -6111,7 +6213,7 @@
         <v>-98.671019999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-43.491729999999997</v>
       </c>
@@ -6147,8 +6249,11 @@
       <c r="X3">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Y3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-61.09</v>
       </c>
@@ -6188,19 +6293,19 @@
         <f>X$3*6*W4</f>
         <v>0.6</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>7</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <f>_xlfn.CEILING.MATH(0.5*W4)+5</f>
         <v>8</v>
       </c>
-      <c r="AB4">
-        <f>W4*1609/3600*0.05*Z4</f>
+      <c r="AC4">
+        <f>W4*1609/3600*0.05*AA4</f>
         <v>0.89388888888888884</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-78.291719999999998</v>
       </c>
@@ -6240,19 +6345,19 @@
         <f t="shared" ref="X5:X13" si="5">X$3*6*W5</f>
         <v>1.2</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>10</v>
       </c>
-      <c r="Z5">
-        <f t="shared" ref="Z5:Z12" si="6">_xlfn.CEILING.MATH(0.5*W5)+5</f>
+      <c r="AA5">
+        <f>_xlfn.CEILING.MATH(0.5*W5)+5</f>
         <v>10</v>
       </c>
-      <c r="AB5">
-        <f t="shared" ref="AB5:AB18" si="7">W5*1609/3600*0.05*Z5</f>
+      <c r="AC5">
+        <f>W5*1609/3600*0.05*AA5</f>
         <v>2.2347222222222221</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-93.050020000000004</v>
       </c>
@@ -6292,19 +6397,19 @@
         <f t="shared" si="5"/>
         <v>1.7999999999999998</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>13</v>
       </c>
-      <c r="Z6">
-        <f t="shared" si="6"/>
+      <c r="AA6">
+        <f>_xlfn.CEILING.MATH(0.5*W6)+5</f>
         <v>13</v>
       </c>
-      <c r="AB6">
-        <f t="shared" si="7"/>
+      <c r="AC6">
+        <f>W6*1609/3600*0.05*AA6</f>
         <v>4.3577083333333331</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-107.7717</v>
       </c>
@@ -6344,19 +6449,19 @@
         <f t="shared" si="5"/>
         <v>2.4</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>16</v>
       </c>
-      <c r="Z7">
-        <f t="shared" si="6"/>
+      <c r="AA7">
+        <f>_xlfn.CEILING.MATH(0.5*W7)+5</f>
         <v>15</v>
       </c>
-      <c r="AB7">
-        <f t="shared" si="7"/>
+      <c r="AC7">
+        <f>W7*1609/3600*0.05*AA7</f>
         <v>6.7041666666666666</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E8">
         <f t="shared" si="1"/>
         <v>9.6752299999999991</v>
@@ -6390,19 +6495,19 @@
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>18</v>
       </c>
-      <c r="Z8">
-        <f t="shared" si="6"/>
+      <c r="AA8">
+        <f>_xlfn.CEILING.MATH(0.5*W8)+5</f>
         <v>18</v>
       </c>
-      <c r="AB8">
-        <f t="shared" si="7"/>
+      <c r="AC8">
+        <f>W8*1609/3600*0.05*AA8</f>
         <v>10.056249999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E9">
         <f t="shared" si="1"/>
         <v>8.8447200000000095</v>
@@ -6436,19 +6541,19 @@
         <f t="shared" si="5"/>
         <v>3.5999999999999996</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>20</v>
       </c>
-      <c r="Z9">
-        <f t="shared" si="6"/>
+      <c r="AA9">
+        <f>_xlfn.CEILING.MATH(0.5*W9)+5</f>
         <v>20</v>
       </c>
-      <c r="AB9">
-        <f t="shared" si="7"/>
+      <c r="AC9">
+        <f>W9*1609/3600*0.05*AA9</f>
         <v>13.408333333333333</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E10">
         <f t="shared" si="1"/>
         <v>14.965279999999993</v>
@@ -6482,18 +6587,18 @@
         <f t="shared" si="5"/>
         <v>4.2</v>
       </c>
-      <c r="Y10">
-        <v>22</v>
-      </c>
       <c r="Z10">
         <v>22</v>
       </c>
-      <c r="AB10">
-        <f t="shared" si="7"/>
+      <c r="AA10">
+        <v>22</v>
+      </c>
+      <c r="AC10">
+        <f>W10*1609/3600*0.05*AA10</f>
         <v>17.207361111111112</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E11">
         <f t="shared" si="1"/>
         <v>9.1647200000000026</v>
@@ -6527,18 +6632,18 @@
         <f t="shared" si="5"/>
         <v>4.8</v>
       </c>
-      <c r="Y11">
-        <v>22</v>
-      </c>
       <c r="Z11">
         <v>22</v>
       </c>
-      <c r="AB11">
-        <f t="shared" si="7"/>
+      <c r="AA11">
+        <v>22</v>
+      </c>
+      <c r="AC11">
+        <f>W11*1609/3600*0.05*AA11</f>
         <v>19.665555555555553</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E12">
         <f t="shared" si="1"/>
         <v>15.935279999999999</v>
@@ -6572,18 +6677,18 @@
         <f t="shared" si="5"/>
         <v>5.3999999999999995</v>
       </c>
-      <c r="Y12">
-        <v>22</v>
-      </c>
       <c r="Z12">
         <v>22</v>
       </c>
-      <c r="AB12">
-        <f t="shared" si="7"/>
+      <c r="AA12">
+        <v>22</v>
+      </c>
+      <c r="AC12">
+        <f>W12*1609/3600*0.05*AA12</f>
         <v>22.123750000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E13">
         <f t="shared" si="1"/>
         <v>9.2747299999999981</v>
@@ -6617,19 +6722,19 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <f>24 -INT((W13-45)/5*2)</f>
         <v>22</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>22</v>
       </c>
-      <c r="AB13">
-        <f t="shared" si="7"/>
+      <c r="AC13">
+        <f>W13*1609/3600*0.05*AA13</f>
         <v>24.581944444444442</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E14">
         <f t="shared" si="1"/>
         <v>20.125280000000004</v>
@@ -6663,20 +6768,20 @@
         <f>(X13+(W14-W$13)*16*X$3)</f>
         <v>9.1999999999999993</v>
       </c>
-      <c r="Y14">
-        <f t="shared" ref="Y14:Y15" si="8">24 -INT((W14-45)/5*2)</f>
+      <c r="Z14">
+        <f>24 -INT((W14-45)/5*2)</f>
         <v>18</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <f>22-INT((W14-W$13)/5*2)</f>
         <v>18</v>
       </c>
-      <c r="AB14">
-        <f t="shared" si="7"/>
+      <c r="AC14">
+        <f>W14*1609/3600*0.05*AA14</f>
         <v>24.134999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E15">
         <f t="shared" si="1"/>
         <v>10.25999</v>
@@ -6711,18 +6816,22 @@
         <v>12.4</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="8"/>
+        <f>X15</f>
+        <v>12.4</v>
+      </c>
+      <c r="Z15">
+        <f>24 -INT((W15-45)/5*2)</f>
         <v>14</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>15</v>
       </c>
-      <c r="AB15">
-        <f t="shared" si="7"/>
+      <c r="AC15">
+        <f>W15*1609/3600*0.05*AA15</f>
         <v>23.464583333333334</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E16">
         <f t="shared" si="1"/>
         <v>15.64</v>
@@ -6750,24 +6859,25 @@
         <v>207.78269310442991</v>
       </c>
       <c r="W16">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="X16">
-        <f>X$15+(W16-W$15)*25*X$3</f>
-        <v>17.399999999999999</v>
+        <f>X$15+(W16-W$15)*30*(X$3+0.0013)</f>
+        <v>15.595000000000001</v>
       </c>
       <c r="Y16">
-        <v>13</v>
-      </c>
-      <c r="Z16">
-        <v>13</v>
-      </c>
-      <c r="AB16">
-        <f t="shared" si="7"/>
-        <v>23.24111111111111</v>
-      </c>
-    </row>
-    <row r="17" spans="5:28" x14ac:dyDescent="0.25">
+        <f>Y$15+(W16-W$15)*30*(Y$3-0.0013)</f>
+        <v>15.205</v>
+      </c>
+      <c r="AA16">
+        <v>14</v>
+      </c>
+      <c r="AC16">
+        <f>W16*1609/3600*0.05*AA16</f>
+        <v>23.464583333333337</v>
+      </c>
+    </row>
+    <row r="17" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E17">
         <f t="shared" si="1"/>
         <v>14.024719999999999</v>
@@ -6795,24 +6905,28 @@
         <v>209.88596215459972</v>
       </c>
       <c r="W17">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="X17">
-        <f>X$15+(W17-W$15)*25*X$3</f>
-        <v>19.899999999999999</v>
+        <f>X$15+(W17-W$15)*30*(X$3+0.0013)</f>
+        <v>18.79</v>
       </c>
       <c r="Y17">
-        <v>13</v>
+        <f t="shared" ref="Y17:Y19" si="6">Y$15+(W17-W$15)*30*(Y$3-0.0013)</f>
+        <v>18.010000000000002</v>
       </c>
       <c r="Z17">
         <v>13</v>
       </c>
-      <c r="AB17">
-        <f t="shared" si="7"/>
-        <v>24.693680555555556</v>
-      </c>
-    </row>
-    <row r="18" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="AA17">
+        <v>13</v>
+      </c>
+      <c r="AC17">
+        <f>W17*1609/3600*0.05*AA17</f>
+        <v>23.24111111111111</v>
+      </c>
+    </row>
+    <row r="18" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E18">
         <f t="shared" si="1"/>
         <v>8.1452799999999996</v>
@@ -6840,24 +6954,28 @@
         <v>214.79470128152073</v>
       </c>
       <c r="W18">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="X18">
-        <f>X$15+(W18-W$15)*25*X$3</f>
-        <v>22.4</v>
+        <f t="shared" ref="X18:Y19" si="7">X$15+(W18-W$15)*30*(X$3+0.0013)</f>
+        <v>21.984999999999999</v>
       </c>
       <c r="Y18">
-        <v>14</v>
+        <f t="shared" si="6"/>
+        <v>20.815000000000001</v>
       </c>
       <c r="Z18">
-        <v>14</v>
-      </c>
-      <c r="AB18">
-        <f t="shared" si="7"/>
-        <v>28.157499999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="5:28" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="AA18">
+        <v>13</v>
+      </c>
+      <c r="AC18">
+        <f>W18*1609/3600*0.05*AA18</f>
+        <v>24.693680555555556</v>
+      </c>
+    </row>
+    <row r="19" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E19">
         <f t="shared" si="1"/>
         <v>11.329999999999998</v>
@@ -6899,8 +7017,29 @@
       <c r="S19">
         <v>108.73009999999999</v>
       </c>
-    </row>
-    <row r="20" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="W19">
+        <v>90</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="7"/>
+        <v>25.18</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="6"/>
+        <v>23.62</v>
+      </c>
+      <c r="Z19">
+        <v>14</v>
+      </c>
+      <c r="AA19">
+        <v>14</v>
+      </c>
+      <c r="AC19">
+        <f>W19*1609/3600*0.05*AA19</f>
+        <v>28.157499999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E20">
         <f t="shared" si="1"/>
         <v>17.598270000000007</v>
@@ -6916,11 +7055,11 @@
         <v>-105.941</v>
       </c>
       <c r="J20">
-        <f t="shared" ref="J20:J70" si="9">ATAN2((F21-F20),(G21-G20))</f>
+        <f t="shared" ref="J20:J70" si="8">ATAN2((F21-F20),(G21-G20))</f>
         <v>-2.5033011016960609</v>
       </c>
       <c r="K20">
-        <f t="shared" ref="K20:K70" si="10">J20+(2*PI())</f>
+        <f t="shared" ref="K20:K70" si="9">J20+(2*PI())</f>
         <v>3.7798842054835253</v>
       </c>
       <c r="L20">
@@ -6934,7 +7073,7 @@
         <v>105.941</v>
       </c>
     </row>
-    <row r="21" spans="5:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E21">
         <f t="shared" si="1"/>
         <v>17.201719999999995</v>
@@ -6950,11 +7089,11 @@
         <v>-92.884990000000002</v>
       </c>
       <c r="J21">
+        <f t="shared" si="8"/>
+        <v>-2.4530893749962774</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="9"/>
-        <v>-2.4530893749962774</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="10"/>
         <v>3.8300959321833088</v>
       </c>
       <c r="L21">
@@ -6962,7 +7101,7 @@
         <v>219.44833204432834</v>
       </c>
     </row>
-    <row r="22" spans="5:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E22">
         <f t="shared" si="1"/>
         <v>14.758300000000006</v>
@@ -6978,11 +7117,11 @@
         <v>-78.731020000000001</v>
       </c>
       <c r="J22">
+        <f t="shared" si="8"/>
+        <v>-2.4047666517284534</v>
+      </c>
+      <c r="K22">
         <f t="shared" si="9"/>
-        <v>-2.4047666517284534</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="10"/>
         <v>3.8784186554511328</v>
       </c>
       <c r="L22">
@@ -6990,7 +7129,7 @@
         <v>222.2170201421533</v>
       </c>
     </row>
-    <row r="23" spans="5:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E23">
         <f t="shared" si="1"/>
         <v>14.721679999999992</v>
@@ -7006,11 +7145,11 @@
         <v>-65.34102</v>
       </c>
       <c r="J23">
+        <f t="shared" si="8"/>
+        <v>-2.3548391484081832</v>
+      </c>
+      <c r="K23">
         <f t="shared" si="9"/>
-        <v>-2.3548391484081832</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="10"/>
         <v>3.928346158771403</v>
       </c>
       <c r="L23">
@@ -7018,7 +7157,7 @@
         <v>225.07765536403019</v>
       </c>
     </row>
-    <row r="24" spans="5:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E24">
         <f t="shared" si="1"/>
         <v>15.620000000000005</v>
@@ -7034,11 +7173,11 @@
         <v>-50.57938</v>
       </c>
       <c r="J24">
+        <f t="shared" si="8"/>
+        <v>-2.3078484170654967</v>
+      </c>
+      <c r="K24">
         <f t="shared" si="9"/>
-        <v>-2.3078484170654967</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="10"/>
         <v>3.9753368901140895</v>
       </c>
       <c r="L24">
@@ -7046,7 +7185,7 @@
         <v>227.77002594619924</v>
       </c>
     </row>
-    <row r="25" spans="5:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E25">
         <f t="shared" si="1"/>
         <v>11.578299999999999</v>
@@ -7062,11 +7201,11 @@
         <v>-33.371020000000001</v>
       </c>
       <c r="J25">
+        <f t="shared" si="8"/>
+        <v>-2.2292233410055102</v>
+      </c>
+      <c r="K25">
         <f t="shared" si="9"/>
-        <v>-2.2292233410055102</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="10"/>
         <v>4.053961966174076</v>
       </c>
       <c r="L25">
@@ -7074,7 +7213,7 @@
         <v>232.27491096833154</v>
       </c>
     </row>
-    <row r="26" spans="5:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E26">
         <f t="shared" si="1"/>
         <v>10.146500000000003</v>
@@ -7090,11 +7229,11 @@
         <v>-18.404</v>
       </c>
       <c r="J26">
+        <f t="shared" si="8"/>
+        <v>-2.1957539637144503</v>
+      </c>
+      <c r="K26">
         <f t="shared" si="9"/>
-        <v>-2.1957539637144503</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="10"/>
         <v>4.0874313434651359</v>
       </c>
       <c r="L26">
@@ -7102,7 +7241,7 @@
         <v>234.1925650300403</v>
       </c>
     </row>
-    <row r="27" spans="5:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E27">
         <f t="shared" si="1"/>
         <v>13.225200000000001</v>
@@ -7118,25 +7257,19 @@
         <v>-4.339378</v>
       </c>
       <c r="J27">
+        <f t="shared" si="8"/>
+        <v>-2.1167432446936658</v>
+      </c>
+      <c r="K27">
         <f t="shared" si="9"/>
-        <v>-2.1167432446936658</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="10"/>
         <v>4.1664420624859204</v>
       </c>
       <c r="L27">
         <f t="shared" si="4"/>
         <v>238.71954576622525</v>
       </c>
-      <c r="W27">
-        <v>0.52700000000000002</v>
-      </c>
-      <c r="X27">
-        <v>-0.52700000000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="5:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E28">
         <f t="shared" si="1"/>
         <v>5.9746999999999844</v>
@@ -7152,11 +7285,11 @@
         <v>17.428979999999999</v>
       </c>
       <c r="J28">
+        <f t="shared" si="8"/>
+        <v>-2.0089636992495175</v>
+      </c>
+      <c r="K28">
         <f t="shared" si="9"/>
-        <v>-2.0089636992495175</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="10"/>
         <v>4.2742216079300688</v>
       </c>
       <c r="L28">
@@ -7167,13 +7300,13 @@
         <v>0</v>
       </c>
       <c r="W28">
-        <v>-1.7000000000000001E-2</v>
+        <v>0.52700000000000002</v>
       </c>
       <c r="X28">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="29" spans="5:28" x14ac:dyDescent="0.25">
+        <v>-0.52700000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E29">
         <f t="shared" si="1"/>
         <v>5.0201000000000136</v>
@@ -7189,11 +7322,11 @@
         <v>30.180620000000001</v>
       </c>
       <c r="J29">
+        <f t="shared" si="8"/>
+        <v>-1.9483098112697177</v>
+      </c>
+      <c r="K29">
         <f t="shared" si="9"/>
-        <v>-1.9483098112697177</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="10"/>
         <v>4.3348754959098681</v>
       </c>
       <c r="L29">
@@ -7204,13 +7337,13 @@
         <v>1</v>
       </c>
       <c r="W29">
-        <v>1.0699999999999999E-2</v>
+        <v>-1.7000000000000001E-2</v>
       </c>
       <c r="X29">
-        <v>-2.4E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="5:28" x14ac:dyDescent="0.25">
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="30" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E30">
         <f t="shared" si="1"/>
         <v>6.1552000000000078</v>
@@ -7226,11 +7359,11 @@
         <v>42.840620000000001</v>
       </c>
       <c r="J30">
+        <f t="shared" si="8"/>
+        <v>-1.8250151646218564</v>
+      </c>
+      <c r="K30">
         <f t="shared" si="9"/>
-        <v>-1.8250151646218564</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="10"/>
         <v>4.45817014255773</v>
       </c>
       <c r="L30">
@@ -7241,13 +7374,13 @@
         <v>2</v>
       </c>
       <c r="W30">
-        <v>3.8000000000000002E-5</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="X30">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="5:28" x14ac:dyDescent="0.25">
+        <v>-2.4E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E31">
         <f t="shared" si="1"/>
         <v>1.4699999999999989</v>
@@ -7263,11 +7396,11 @@
         <v>66.528980000000004</v>
       </c>
       <c r="J31">
+        <f t="shared" si="8"/>
+        <v>-1.7122641985061324</v>
+      </c>
+      <c r="K31">
         <f t="shared" si="9"/>
-        <v>-1.7122641985061324</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="10"/>
         <v>4.5709211086734536</v>
       </c>
       <c r="L31">
@@ -7277,8 +7410,14 @@
       <c r="V31">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="W31">
+        <v>3.8000000000000002E-5</v>
+      </c>
+      <c r="X31">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E32">
         <f t="shared" si="1"/>
         <v>-7.529999999999859E-2</v>
@@ -7294,11 +7433,11 @@
         <v>76.850620000000006</v>
       </c>
       <c r="J32">
+        <f t="shared" si="8"/>
+        <v>-1.5653359064172374</v>
+      </c>
+      <c r="K32">
         <f t="shared" si="9"/>
-        <v>-1.5653359064172374</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="10"/>
         <v>4.7178494007623488</v>
       </c>
       <c r="L32">
@@ -7307,18 +7446,6 @@
       </c>
       <c r="V32">
         <v>4</v>
-      </c>
-      <c r="W32">
-        <f>W$27+W$28*$V28+W$29*POWER($V28,2)+W$30*POWER($V28,3)</f>
-        <v>0.52700000000000002</v>
-      </c>
-      <c r="X32">
-        <f>X$27+X$28*$V28+X$29*POWER($V28,2)+X$30*POWER($V28,3)</f>
-        <v>-0.52700000000000002</v>
-      </c>
-      <c r="Y32">
-        <f>Y$27+Y$28*$V28+Y$29*POWER($V28,2)+Y$30*POWER($V28,3)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="33" spans="5:25" x14ac:dyDescent="0.25">
@@ -7337,11 +7464,11 @@
         <v>90.640630000000002</v>
       </c>
       <c r="J33">
+        <f t="shared" si="8"/>
+        <v>-1.3864759282515284</v>
+      </c>
+      <c r="K33">
         <f t="shared" si="9"/>
-        <v>-1.3864759282515284</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="10"/>
         <v>4.8967093789280582</v>
       </c>
       <c r="L33">
@@ -7352,15 +7479,15 @@
         <v>5</v>
       </c>
       <c r="W33">
-        <f>W$27+W$28*$V29+W$29*POWER($V29,2)+W$30*POWER($V29,3)</f>
-        <v>0.52073800000000003</v>
+        <f>W$28+W$29*$V28+W$30*POWER($V28,2)+W$31*POWER($V28,3)</f>
+        <v>0.52700000000000002</v>
       </c>
       <c r="X33">
-        <f>X$27+X$28*$V29+X$29*POWER($V29,2)+X$30*POWER($V29,3)</f>
-        <v>-0.70090000000000008</v>
+        <f>X$28+X$29*$V28+X$30*POWER($V28,2)+X$31*POWER($V28,3)</f>
+        <v>-0.52700000000000002</v>
       </c>
       <c r="Y33">
-        <f>Y$27+Y$28*$V29+Y$29*POWER($V29,2)+Y$30*POWER($V29,3)</f>
+        <f>Y$28+Y$29*$V28+Y$30*POWER($V28,2)+Y$31*POWER($V28,3)</f>
         <v>0</v>
       </c>
     </row>
@@ -7376,15 +7503,15 @@
         <v>-100.3206</v>
       </c>
       <c r="H34">
-        <f t="shared" ref="H34:H65" si="11">-G34</f>
+        <f t="shared" ref="H34:H65" si="10">-G34</f>
         <v>100.3206</v>
       </c>
       <c r="J34">
+        <f t="shared" si="8"/>
+        <v>-1.26223856399562</v>
+      </c>
+      <c r="K34">
         <f t="shared" si="9"/>
-        <v>-1.26223856399562</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="10"/>
         <v>5.0209467431839663</v>
       </c>
       <c r="L34">
@@ -7395,15 +7522,15 @@
         <v>6</v>
       </c>
       <c r="W34">
-        <f>W$27+W$28*$V30+W$29*POWER($V30,2)+W$30*POWER($V30,3)</f>
-        <v>0.53610399999999991</v>
+        <f>W$28+W$29*$V29+W$30*POWER($V29,2)+W$31*POWER($V29,3)</f>
+        <v>0.52073800000000003</v>
       </c>
       <c r="X34">
-        <f>X$27+X$28*$V30+X$29*POWER($V30,2)+X$30*POWER($V30,3)</f>
-        <v>-0.92219999999999991</v>
+        <f>X$28+X$29*$V29+X$30*POWER($V29,2)+X$31*POWER($V29,3)</f>
+        <v>-0.70090000000000008</v>
       </c>
       <c r="Y34">
-        <f>Y$27+Y$28*$V30+Y$29*POWER($V30,2)+Y$30*POWER($V30,3)</f>
+        <f>Y$28+Y$29*$V29+Y$30*POWER($V29,2)+Y$31*POWER($V29,3)</f>
         <v>0</v>
       </c>
     </row>
@@ -7419,15 +7546,15 @@
         <v>-115.129</v>
       </c>
       <c r="H35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>115.129</v>
       </c>
       <c r="J35">
+        <f t="shared" si="8"/>
+        <v>-1.0068361452316159</v>
+      </c>
+      <c r="K35">
         <f t="shared" si="9"/>
-        <v>-1.0068361452316159</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="10"/>
         <v>5.2763491619479703</v>
       </c>
       <c r="L35">
@@ -7438,15 +7565,15 @@
         <v>7</v>
       </c>
       <c r="W35">
-        <f>W$27+W$28*$V31+W$29*POWER($V31,2)+W$30*POWER($V31,3)</f>
-        <v>0.573326</v>
+        <f>W$28+W$29*$V30+W$30*POWER($V30,2)+W$31*POWER($V30,3)</f>
+        <v>0.53610399999999991</v>
       </c>
       <c r="X35">
-        <f>X$27+X$28*$V31+X$29*POWER($V31,2)+X$30*POWER($V31,3)</f>
-        <v>-1.1903000000000001</v>
+        <f>X$28+X$29*$V30+X$30*POWER($V30,2)+X$31*POWER($V30,3)</f>
+        <v>-0.92219999999999991</v>
       </c>
       <c r="Y35">
-        <f>Y$27+Y$28*$V31+Y$29*POWER($V31,2)+Y$30*POWER($V31,3)</f>
+        <f>Y$28+Y$29*$V30+Y$30*POWER($V30,2)+Y$31*POWER($V30,3)</f>
         <v>0</v>
       </c>
     </row>
@@ -7462,15 +7589,15 @@
         <v>-124.5206</v>
       </c>
       <c r="H36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>124.5206</v>
       </c>
       <c r="J36">
+        <f t="shared" si="8"/>
+        <v>-0.89807271384214171</v>
+      </c>
+      <c r="K36">
         <f t="shared" si="9"/>
-        <v>-0.89807271384214171</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="10"/>
         <v>5.3851125933374444</v>
       </c>
       <c r="L36">
@@ -7481,15 +7608,15 @@
         <v>8</v>
       </c>
       <c r="W36">
-        <f>W$27+W$28*$V32+W$29*POWER($V32,2)+W$30*POWER($V32,3)</f>
-        <v>0.63263199999999997</v>
+        <f>W$28+W$29*$V31+W$30*POWER($V31,2)+W$31*POWER($V31,3)</f>
+        <v>0.573326</v>
       </c>
       <c r="X36">
-        <f>X$27+X$28*$V32+X$29*POWER($V32,2)+X$30*POWER($V32,3)</f>
-        <v>-1.5046000000000002</v>
+        <f>X$28+X$29*$V31+X$30*POWER($V31,2)+X$31*POWER($V31,3)</f>
+        <v>-1.1903000000000001</v>
       </c>
       <c r="Y36">
-        <f>Y$27+Y$28*$V32+Y$29*POWER($V32,2)+Y$30*POWER($V32,3)</f>
+        <f>Y$28+Y$29*$V31+Y$30*POWER($V31,2)+Y$31*POWER($V31,3)</f>
         <v>0</v>
       </c>
     </row>
@@ -7505,15 +7632,15 @@
         <v>-131.399</v>
       </c>
       <c r="H37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>131.399</v>
       </c>
       <c r="J37">
+        <f t="shared" si="8"/>
+        <v>-0.67878950309958119</v>
+      </c>
+      <c r="K37">
         <f t="shared" si="9"/>
-        <v>-0.67878950309958119</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="10"/>
         <v>5.6043958040800046</v>
       </c>
       <c r="L37">
@@ -7524,15 +7651,15 @@
         <v>10</v>
       </c>
       <c r="W37">
-        <f>W$27+W$28*$V33+W$29*POWER($V33,2)+W$30*POWER($V33,3)</f>
-        <v>0.71425000000000005</v>
+        <f>W$28+W$29*$V32+W$30*POWER($V32,2)+W$31*POWER($V32,3)</f>
+        <v>0.63263199999999997</v>
       </c>
       <c r="X37">
-        <f>X$27+X$28*$V33+X$29*POWER($V33,2)+X$30*POWER($V33,3)</f>
-        <v>-1.8645000000000003</v>
+        <f>X$28+X$29*$V32+X$30*POWER($V32,2)+X$31*POWER($V32,3)</f>
+        <v>-1.5046000000000002</v>
       </c>
       <c r="Y37">
-        <f>Y$27+Y$28*$V33+Y$29*POWER($V33,2)+Y$30*POWER($V33,3)</f>
+        <f>Y$28+Y$29*$V32+Y$30*POWER($V32,2)+Y$31*POWER($V32,3)</f>
         <v>0</v>
       </c>
     </row>
@@ -7548,15 +7675,15 @@
         <v>-141.32900000000001</v>
       </c>
       <c r="H38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>141.32900000000001</v>
       </c>
       <c r="J38">
+        <f t="shared" si="8"/>
+        <v>-0.47577854524426683</v>
+      </c>
+      <c r="K38">
         <f t="shared" si="9"/>
-        <v>-0.47577854524426683</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="10"/>
         <v>5.8074067619353196</v>
       </c>
       <c r="L38">
@@ -7567,15 +7694,15 @@
         <v>20</v>
       </c>
       <c r="W38">
-        <f>W$27+W$28*$V34+W$29*POWER($V34,2)+W$30*POWER($V34,3)</f>
-        <v>0.81840800000000002</v>
+        <f>W$28+W$29*$V33+W$30*POWER($V33,2)+W$31*POWER($V33,3)</f>
+        <v>0.71425000000000005</v>
       </c>
       <c r="X38">
-        <f>X$27+X$28*$V34+X$29*POWER($V34,2)+X$30*POWER($V34,3)</f>
-        <v>-2.2694000000000001</v>
+        <f>X$28+X$29*$V33+X$30*POWER($V33,2)+X$31*POWER($V33,3)</f>
+        <v>-1.8645000000000003</v>
       </c>
       <c r="Y38">
-        <f>Y$27+Y$28*$V34+Y$29*POWER($V34,2)+Y$30*POWER($V34,3)</f>
+        <f>Y$28+Y$29*$V33+Y$30*POWER($V33,2)+Y$31*POWER($V33,3)</f>
         <v>0</v>
       </c>
     </row>
@@ -7591,15 +7718,15 @@
         <v>-147.489</v>
       </c>
       <c r="H39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>147.489</v>
       </c>
       <c r="J39">
+        <f t="shared" si="8"/>
+        <v>-0.38974592938229663</v>
+      </c>
+      <c r="K39">
         <f t="shared" si="9"/>
-        <v>-0.38974592938229663</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="10"/>
         <v>5.8934393777972893</v>
       </c>
       <c r="L39">
@@ -7610,15 +7737,15 @@
         <v>30</v>
       </c>
       <c r="W39">
-        <f>W$27+W$28*$V35+W$29*POWER($V35,2)+W$30*POWER($V35,3)</f>
-        <v>0.94533400000000001</v>
+        <f>W$28+W$29*$V34+W$30*POWER($V34,2)+W$31*POWER($V34,3)</f>
+        <v>0.81840800000000002</v>
       </c>
       <c r="X39">
-        <f>X$27+X$28*$V35+X$29*POWER($V35,2)+X$30*POWER($V35,3)</f>
-        <v>-2.7187000000000001</v>
+        <f>X$28+X$29*$V34+X$30*POWER($V34,2)+X$31*POWER($V34,3)</f>
+        <v>-2.2694000000000001</v>
       </c>
       <c r="Y39">
-        <f>Y$27+Y$28*$V35+Y$29*POWER($V35,2)+Y$30*POWER($V35,3)</f>
+        <f>Y$28+Y$29*$V34+Y$30*POWER($V34,2)+Y$31*POWER($V34,3)</f>
         <v>0</v>
       </c>
     </row>
@@ -7634,15 +7761,15 @@
         <v>-150.84899999999999</v>
       </c>
       <c r="H40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>150.84899999999999</v>
       </c>
       <c r="J40">
+        <f t="shared" si="8"/>
+        <v>-0.25368648028878787</v>
+      </c>
+      <c r="K40">
         <f t="shared" si="9"/>
-        <v>-0.25368648028878787</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="10"/>
         <v>6.0294988268907987</v>
       </c>
       <c r="L40">
@@ -7653,15 +7780,15 @@
         <v>40</v>
       </c>
       <c r="W40">
-        <f>W$27+W$28*$V36+W$29*POWER($V36,2)+W$30*POWER($V36,3)</f>
-        <v>1.095256</v>
+        <f>W$28+W$29*$V35+W$30*POWER($V35,2)+W$31*POWER($V35,3)</f>
+        <v>0.94533400000000001</v>
       </c>
       <c r="X40">
-        <f>X$27+X$28*$V36+X$29*POWER($V36,2)+X$30*POWER($V36,3)</f>
-        <v>-3.2117999999999998</v>
+        <f>X$28+X$29*$V35+X$30*POWER($V35,2)+X$31*POWER($V35,3)</f>
+        <v>-2.7187000000000001</v>
       </c>
       <c r="Y40">
-        <f>Y$27+Y$28*$V36+Y$29*POWER($V36,2)+Y$30*POWER($V36,3)</f>
+        <f>Y$28+Y$29*$V35+Y$30*POWER($V35,2)+Y$31*POWER($V35,3)</f>
         <v>0</v>
       </c>
     </row>
@@ -7677,15 +7804,15 @@
         <v>-155.499</v>
       </c>
       <c r="H41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>155.499</v>
       </c>
       <c r="J41">
+        <f t="shared" si="8"/>
+        <v>-0.15669511761274493</v>
+      </c>
+      <c r="K41">
         <f t="shared" si="9"/>
-        <v>-0.15669511761274493</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="10"/>
         <v>6.1264901895668409</v>
       </c>
       <c r="L41">
@@ -7696,15 +7823,15 @@
         <v>50</v>
       </c>
       <c r="W41">
-        <f>W$27+W$28*$V37+W$29*POWER($V37,2)+W$30*POWER($V37,3)</f>
-        <v>1.4649999999999999</v>
+        <f>W$28+W$29*$V36+W$30*POWER($V36,2)+W$31*POWER($V36,3)</f>
+        <v>1.095256</v>
       </c>
       <c r="X41">
-        <f>X$27+X$28*$V37+X$29*POWER($V37,2)+X$30*POWER($V37,3)</f>
-        <v>-4.327</v>
+        <f>X$28+X$29*$V36+X$30*POWER($V36,2)+X$31*POWER($V36,3)</f>
+        <v>-3.2117999999999998</v>
       </c>
       <c r="Y41">
-        <f>Y$27+Y$28*$V37+Y$29*POWER($V37,2)+Y$30*POWER($V37,3)</f>
+        <f>Y$28+Y$29*$V36+Y$30*POWER($V36,2)+Y$31*POWER($V36,3)</f>
         <v>0</v>
       </c>
     </row>
@@ -7720,15 +7847,15 @@
         <v>-157.60900000000001</v>
       </c>
       <c r="H42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>157.60900000000001</v>
       </c>
       <c r="J42">
+        <f t="shared" si="8"/>
+        <v>-7.1091946844035525E-2</v>
+      </c>
+      <c r="K42">
         <f t="shared" si="9"/>
-        <v>-7.1091946844035525E-2</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="10"/>
         <v>6.212093360335551</v>
       </c>
       <c r="L42">
@@ -7736,15 +7863,15 @@
         <v>355.92673148846842</v>
       </c>
       <c r="W42">
-        <f>W$27+W$28*$V38+W$29*POWER($V38,2)+W$30*POWER($V38,3)</f>
-        <v>4.7709999999999999</v>
+        <f>W$28+W$29*$V37+W$30*POWER($V37,2)+W$31*POWER($V37,3)</f>
+        <v>1.4649999999999999</v>
       </c>
       <c r="X42">
-        <f>X$27+X$28*$V38+X$29*POWER($V38,2)+X$30*POWER($V38,3)</f>
-        <v>-12.326999999999998</v>
+        <f>X$28+X$29*$V37+X$30*POWER($V37,2)+X$31*POWER($V37,3)</f>
+        <v>-4.327</v>
       </c>
       <c r="Y42">
-        <f>Y$27+Y$28*$V38+Y$29*POWER($V38,2)+Y$30*POWER($V38,3)</f>
+        <f>Y$28+Y$29*$V37+Y$30*POWER($V37,2)+Y$31*POWER($V37,3)</f>
         <v>0</v>
       </c>
     </row>
@@ -7760,15 +7887,15 @@
         <v>-159.12899999999999</v>
       </c>
       <c r="H43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>159.12899999999999</v>
       </c>
       <c r="J43">
+        <f t="shared" si="8"/>
+        <v>9.5298603710410046E-4</v>
+      </c>
+      <c r="K43">
         <f t="shared" si="9"/>
-        <v>9.5298603710410046E-4</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="10"/>
         <v>6.2841382932166905</v>
       </c>
       <c r="L43">
@@ -7776,15 +7903,15 @@
         <v>5.4602077860977261E-2</v>
       </c>
       <c r="W43">
-        <f>W$27+W$28*$V39+W$29*POWER($V39,2)+W$30*POWER($V39,3)</f>
-        <v>10.672999999999998</v>
+        <f>W$28+W$29*$V38+W$30*POWER($V38,2)+W$31*POWER($V38,3)</f>
+        <v>4.7709999999999999</v>
       </c>
       <c r="X43">
-        <f>X$27+X$28*$V39+X$29*POWER($V39,2)+X$30*POWER($V39,3)</f>
-        <v>-23.927000000000003</v>
+        <f>X$28+X$29*$V38+X$30*POWER($V38,2)+X$31*POWER($V38,3)</f>
+        <v>-12.326999999999998</v>
       </c>
       <c r="Y43">
-        <f>Y$27+Y$28*$V39+Y$29*POWER($V39,2)+Y$30*POWER($V39,3)</f>
+        <f>Y$28+Y$29*$V38+Y$30*POWER($V38,2)+Y$31*POWER($V38,3)</f>
         <v>0</v>
       </c>
     </row>
@@ -7800,15 +7927,15 @@
         <v>-159.09899999999999</v>
       </c>
       <c r="H44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>159.09899999999999</v>
       </c>
       <c r="J44">
+        <f t="shared" si="8"/>
+        <v>0.1218401927187589</v>
+      </c>
+      <c r="K44">
         <f t="shared" si="9"/>
-        <v>0.1218401927187589</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="10"/>
         <v>6.4050254998983451</v>
       </c>
       <c r="L44">
@@ -7816,15 +7943,15 @@
         <v>6.9809288178454381</v>
       </c>
       <c r="W44">
-        <f>W$27+W$28*$V40+W$29*POWER($V40,2)+W$30*POWER($V40,3)</f>
-        <v>19.398999999999997</v>
+        <f>W$28+W$29*$V39+W$30*POWER($V39,2)+W$31*POWER($V39,3)</f>
+        <v>10.672999999999998</v>
       </c>
       <c r="X44">
-        <f>X$27+X$28*$V40+X$29*POWER($V40,2)+X$30*POWER($V40,3)</f>
-        <v>-38.527000000000001</v>
+        <f>X$28+X$29*$V39+X$30*POWER($V39,2)+X$31*POWER($V39,3)</f>
+        <v>-23.927000000000003</v>
       </c>
       <c r="Y44">
-        <f>Y$27+Y$28*$V40+Y$29*POWER($V40,2)+Y$30*POWER($V40,3)</f>
+        <f>Y$28+Y$29*$V39+Y$30*POWER($V39,2)+Y$31*POWER($V39,3)</f>
         <v>0</v>
       </c>
     </row>
@@ -7840,15 +7967,15 @@
         <v>-148.12899999999999</v>
       </c>
       <c r="H45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>148.12899999999999</v>
       </c>
       <c r="J45">
+        <f t="shared" si="8"/>
+        <v>0.14965202527900201</v>
+      </c>
+      <c r="K45">
         <f t="shared" si="9"/>
-        <v>0.14965202527900201</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="10"/>
         <v>6.4328373324585879</v>
       </c>
       <c r="L45">
@@ -7856,15 +7983,15 @@
         <v>8.5744294440718818</v>
       </c>
       <c r="W45">
-        <f>W$27+W$28*$V41+W$29*POWER($V41,2)+W$30*POWER($V41,3)</f>
-        <v>31.177</v>
+        <f>W$28+W$29*$V40+W$30*POWER($V40,2)+W$31*POWER($V40,3)</f>
+        <v>19.398999999999997</v>
       </c>
       <c r="X45">
-        <f>X$27+X$28*$V41+X$29*POWER($V41,2)+X$30*POWER($V41,3)</f>
-        <v>-55.527000000000001</v>
+        <f>X$28+X$29*$V40+X$30*POWER($V40,2)+X$31*POWER($V40,3)</f>
+        <v>-38.527000000000001</v>
       </c>
       <c r="Y45">
-        <f>Y$27+Y$28*$V41+Y$29*POWER($V41,2)+Y$30*POWER($V41,3)</f>
+        <f>Y$28+Y$29*$V40+Y$30*POWER($V40,2)+Y$31*POWER($V40,3)</f>
         <v>0</v>
       </c>
     </row>
@@ -7880,20 +8007,32 @@
         <v>-143.929</v>
       </c>
       <c r="H46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>143.929</v>
       </c>
       <c r="J46">
+        <f t="shared" si="8"/>
+        <v>0.24015921464034107</v>
+      </c>
+      <c r="K46">
         <f t="shared" si="9"/>
-        <v>0.24015921464034107</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="10"/>
         <v>6.5233445218199275</v>
       </c>
       <c r="L46">
         <f t="shared" si="4"/>
         <v>13.760109410068026</v>
+      </c>
+      <c r="W46">
+        <f>W$28+W$29*$V41+W$30*POWER($V41,2)+W$31*POWER($V41,3)</f>
+        <v>31.177</v>
+      </c>
+      <c r="X46">
+        <f>X$28+X$29*$V41+X$30*POWER($V41,2)+X$31*POWER($V41,3)</f>
+        <v>-55.527000000000001</v>
+      </c>
+      <c r="Y46">
+        <f>Y$28+Y$29*$V41+Y$30*POWER($V41,2)+Y$31*POWER($V41,3)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="5:25" x14ac:dyDescent="0.25">
@@ -7908,15 +8047,15 @@
         <v>-139.97900000000001</v>
       </c>
       <c r="H47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>139.97900000000001</v>
       </c>
       <c r="J47">
+        <f t="shared" si="8"/>
+        <v>0.34383429441604324</v>
+      </c>
+      <c r="K47">
         <f t="shared" si="9"/>
-        <v>0.34383429441604324</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="10"/>
         <v>6.6270196015956291</v>
       </c>
       <c r="L47">
@@ -7936,15 +8075,15 @@
         <v>-134.209</v>
       </c>
       <c r="H48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>134.209</v>
       </c>
       <c r="J48">
+        <f t="shared" si="8"/>
+        <v>0.47289812366089545</v>
+      </c>
+      <c r="K48">
         <f t="shared" si="9"/>
-        <v>0.47289812366089545</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="10"/>
         <v>6.7560834308404818</v>
       </c>
       <c r="L48">
@@ -7964,15 +8103,15 @@
         <v>-130.6506</v>
       </c>
       <c r="H49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>130.6506</v>
       </c>
       <c r="J49">
+        <f t="shared" si="8"/>
+        <v>0.69183314593573098</v>
+      </c>
+      <c r="K49">
         <f t="shared" si="9"/>
-        <v>0.69183314593573098</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="10"/>
         <v>6.9750184531153172</v>
       </c>
       <c r="L49">
@@ -7992,15 +8131,15 @@
         <v>-123.779</v>
       </c>
       <c r="H50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>123.779</v>
       </c>
       <c r="J50">
+        <f t="shared" si="8"/>
+        <v>0.94518136580805401</v>
+      </c>
+      <c r="K50">
         <f t="shared" si="9"/>
-        <v>0.94518136580805401</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="10"/>
         <v>7.2283666729876401</v>
       </c>
       <c r="L50">
@@ -8020,15 +8159,15 @@
         <v>-118.15900000000001</v>
       </c>
       <c r="H51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>118.15900000000001</v>
       </c>
       <c r="J51">
+        <f t="shared" si="8"/>
+        <v>1.3141989034578774</v>
+      </c>
+      <c r="K51">
         <f t="shared" si="9"/>
-        <v>1.3141989034578774</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="10"/>
         <v>7.5973842106374638</v>
       </c>
       <c r="L51">
@@ -8048,15 +8187,15 @@
         <v>-108.669</v>
       </c>
       <c r="H52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>108.669</v>
       </c>
       <c r="J52">
+        <f t="shared" si="8"/>
+        <v>1.5683924852712259</v>
+      </c>
+      <c r="K52">
         <f t="shared" si="9"/>
-        <v>1.5683924852712259</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="10"/>
         <v>7.8515777924508123</v>
       </c>
       <c r="L52">
@@ -8076,15 +8215,15 @@
         <v>-100.349</v>
       </c>
       <c r="H53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>100.349</v>
       </c>
       <c r="J53">
+        <f t="shared" si="8"/>
+        <v>1.7822178881234765</v>
+      </c>
+      <c r="K53">
         <f t="shared" si="9"/>
-        <v>1.7822178881234765</v>
-      </c>
-      <c r="K53">
-        <f t="shared" si="10"/>
         <v>8.0654031953030625</v>
       </c>
       <c r="L53">
@@ -8104,15 +8243,15 @@
         <v>-89.958979999999997</v>
       </c>
       <c r="H54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>89.958979999999997</v>
       </c>
       <c r="J54">
+        <f t="shared" si="8"/>
+        <v>1.9993845187542589</v>
+      </c>
+      <c r="K54">
         <f t="shared" si="9"/>
-        <v>1.9993845187542589</v>
-      </c>
-      <c r="K54">
-        <f t="shared" si="10"/>
         <v>8.2825698259338445</v>
       </c>
       <c r="L54">
@@ -8132,15 +8271,15 @@
         <v>-79.978970000000004</v>
       </c>
       <c r="H55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>79.978970000000004</v>
       </c>
       <c r="J55">
+        <f t="shared" si="8"/>
+        <v>2.0386913842975609</v>
+      </c>
+      <c r="K55">
         <f t="shared" si="9"/>
-        <v>2.0386913842975609</v>
-      </c>
-      <c r="K55">
-        <f t="shared" si="10"/>
         <v>8.3218766914771471</v>
       </c>
       <c r="L55">
@@ -8160,15 +8299,15 @@
         <v>-69.826999999999998</v>
       </c>
       <c r="H56">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>69.826999999999998</v>
       </c>
       <c r="J56">
+        <f t="shared" si="8"/>
+        <v>2.1669237331873372</v>
+      </c>
+      <c r="K56">
         <f t="shared" si="9"/>
-        <v>2.1669237331873372</v>
-      </c>
-      <c r="K56">
-        <f t="shared" si="10"/>
         <v>8.4501090403669235</v>
       </c>
       <c r="L56">
@@ -8188,15 +8327,15 @@
         <v>-42.028979999999997</v>
       </c>
       <c r="H57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>42.028979999999997</v>
       </c>
       <c r="J57">
+        <f t="shared" si="8"/>
+        <v>2.1751926608696803</v>
+      </c>
+      <c r="K57">
         <f t="shared" si="9"/>
-        <v>2.1751926608696803</v>
-      </c>
-      <c r="K57">
-        <f t="shared" si="10"/>
         <v>8.4583779680492661</v>
       </c>
       <c r="L57">
@@ -8216,15 +8355,15 @@
         <v>-20.72898</v>
       </c>
       <c r="H58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>20.72898</v>
       </c>
       <c r="J58">
+        <f t="shared" si="8"/>
+        <v>2.0265342645217261</v>
+      </c>
+      <c r="K58">
         <f t="shared" si="9"/>
-        <v>2.0265342645217261</v>
-      </c>
-      <c r="K58">
-        <f t="shared" si="10"/>
         <v>8.3097195717013115</v>
       </c>
       <c r="L58">
@@ -8244,15 +8383,15 @@
         <v>-12.66062</v>
       </c>
       <c r="H59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>12.66062</v>
       </c>
       <c r="J59">
+        <f t="shared" si="8"/>
+        <v>1.8078608290919163</v>
+      </c>
+      <c r="K59">
         <f t="shared" si="9"/>
-        <v>1.8078608290919163</v>
-      </c>
-      <c r="K59">
-        <f t="shared" si="10"/>
         <v>8.0910461362715029</v>
       </c>
       <c r="L59">
@@ -8272,15 +8411,15 @@
         <v>-7.8789829999999998</v>
       </c>
       <c r="H60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>7.8789829999999998</v>
       </c>
       <c r="J60">
+        <f t="shared" si="8"/>
+        <v>1.7933474590059386</v>
+      </c>
+      <c r="K60">
         <f t="shared" si="9"/>
-        <v>1.7933474590059386</v>
-      </c>
-      <c r="K60">
-        <f t="shared" si="10"/>
         <v>8.0765327661855242</v>
       </c>
       <c r="L60">
@@ -8300,15 +8439,15 @@
         <v>-1.3389819999999999</v>
       </c>
       <c r="H61">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.3389819999999999</v>
       </c>
       <c r="J61">
+        <f t="shared" si="8"/>
+        <v>1.4542438766892909</v>
+      </c>
+      <c r="K61">
         <f t="shared" si="9"/>
-        <v>1.4542438766892909</v>
-      </c>
-      <c r="K61">
-        <f t="shared" si="10"/>
         <v>7.7374291838688771</v>
       </c>
       <c r="L61">
@@ -8328,15 +8467,15 @@
         <v>5.75</v>
       </c>
       <c r="H62">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-5.75</v>
       </c>
       <c r="J62">
+        <f t="shared" si="8"/>
+        <v>1.1134131516707042</v>
+      </c>
+      <c r="K62">
         <f t="shared" si="9"/>
-        <v>1.1134131516707042</v>
-      </c>
-      <c r="K62">
-        <f t="shared" si="10"/>
         <v>7.3965984588502902</v>
       </c>
       <c r="L62">
@@ -8356,15 +8495,15 @@
         <v>12.86102</v>
       </c>
       <c r="H63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-12.86102</v>
       </c>
       <c r="J63">
+        <f t="shared" si="8"/>
+        <v>0.79465056840401327</v>
+      </c>
+      <c r="K63">
         <f t="shared" si="9"/>
-        <v>0.79465056840401327</v>
-      </c>
-      <c r="K63">
-        <f t="shared" si="10"/>
         <v>7.0778358755835997</v>
       </c>
       <c r="L63">
@@ -8384,15 +8523,15 @@
         <v>19.95102</v>
       </c>
       <c r="H64">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-19.95102</v>
       </c>
       <c r="J64">
+        <f t="shared" si="8"/>
+        <v>0.65666421594832236</v>
+      </c>
+      <c r="K64">
         <f t="shared" si="9"/>
-        <v>0.65666421594832236</v>
-      </c>
-      <c r="K64">
-        <f t="shared" si="10"/>
         <v>6.9398495231279087</v>
       </c>
       <c r="L64">
@@ -8412,15 +8551,15 @@
         <v>25.331019999999999</v>
       </c>
       <c r="H65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-25.331019999999999</v>
       </c>
       <c r="J65">
+        <f t="shared" si="8"/>
+        <v>0.53887037641052349</v>
+      </c>
+      <c r="K65">
         <f t="shared" si="9"/>
-        <v>0.53887037641052349</v>
-      </c>
-      <c r="K65">
-        <f t="shared" si="10"/>
         <v>6.8220556835901096</v>
       </c>
       <c r="L65">
@@ -8440,15 +8579,15 @@
         <v>29.881019999999999</v>
       </c>
       <c r="H66">
-        <f t="shared" ref="H66:H97" si="12">-G66</f>
+        <f t="shared" ref="H66:H97" si="11">-G66</f>
         <v>-29.881019999999999</v>
       </c>
       <c r="J66">
+        <f t="shared" si="8"/>
+        <v>0.48195933166275001</v>
+      </c>
+      <c r="K66">
         <f t="shared" si="9"/>
-        <v>0.48195933166275001</v>
-      </c>
-      <c r="K66">
-        <f t="shared" si="10"/>
         <v>6.7651446388423366</v>
       </c>
       <c r="L66">
@@ -8458,7 +8597,7 @@
     </row>
     <row r="67" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E67">
-        <f t="shared" ref="E67:E71" si="13">F67-F68</f>
+        <f t="shared" ref="E67:E71" si="12">F67-F68</f>
         <v>-14.700000000000017</v>
       </c>
       <c r="F67">
@@ -8468,15 +8607,15 @@
         <v>38.049390000000002</v>
       </c>
       <c r="H67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-38.049390000000002</v>
       </c>
       <c r="J67">
+        <f t="shared" si="8"/>
+        <v>0.47348330501231117</v>
+      </c>
+      <c r="K67">
         <f t="shared" si="9"/>
-        <v>0.47348330501231117</v>
-      </c>
-      <c r="K67">
-        <f t="shared" si="10"/>
         <v>6.7566686121918975</v>
       </c>
       <c r="L67">
@@ -8486,7 +8625,7 @@
     </row>
     <row r="68" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-23.26479999999998</v>
       </c>
       <c r="F68">
@@ -8496,25 +8635,25 @@
         <v>45.581020000000002</v>
       </c>
       <c r="H68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-45.581020000000002</v>
       </c>
       <c r="J68">
+        <f t="shared" si="8"/>
+        <v>0.53187808632890565</v>
+      </c>
+      <c r="K68">
         <f t="shared" si="9"/>
-        <v>0.53187808632890565</v>
-      </c>
-      <c r="K68">
-        <f t="shared" si="10"/>
         <v>6.8150633935084919</v>
       </c>
       <c r="L68">
-        <f t="shared" ref="L68:L70" si="14">MOD(K68/PI()*180,360)</f>
+        <f t="shared" ref="L68:L70" si="13">MOD(K68/PI()*180,360)</f>
         <v>30.474369562141192</v>
       </c>
     </row>
     <row r="69" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E69">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-9.2352000000000203</v>
       </c>
       <c r="F69">
@@ -8524,25 +8663,25 @@
         <v>59.27102</v>
       </c>
       <c r="H69">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-59.27102</v>
       </c>
       <c r="J69">
+        <f t="shared" si="8"/>
+        <v>0.69179149352559643</v>
+      </c>
+      <c r="K69">
         <f t="shared" si="9"/>
-        <v>0.69179149352559643</v>
-      </c>
-      <c r="K69">
-        <f t="shared" si="10"/>
         <v>6.9749768007051829</v>
       </c>
       <c r="L69">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>39.636732882068486</v>
       </c>
     </row>
     <row r="70" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E70">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-10.164799999999985</v>
       </c>
       <c r="F70">
@@ -8552,25 +8691,25 @@
         <v>66.921019999999999</v>
       </c>
       <c r="H70">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-66.921019999999999</v>
       </c>
       <c r="J70">
+        <f t="shared" si="8"/>
+        <v>0.89389965964022522</v>
+      </c>
+      <c r="K70">
         <f t="shared" si="9"/>
-        <v>0.89389965964022522</v>
-      </c>
-      <c r="K70">
-        <f t="shared" si="10"/>
         <v>7.1770849668198116</v>
       </c>
       <c r="L70">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>51.216677805565723</v>
       </c>
     </row>
     <row r="71" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E71">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>175.9083</v>
       </c>
       <c r="F71">
@@ -8580,7 +8719,7 @@
         <v>79.571020000000004</v>
       </c>
       <c r="H71">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>-79.571020000000004</v>
       </c>
     </row>
